--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Penk</t>
+  </si>
+  <si>
+    <t>Ogfr</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Penk</t>
-  </si>
-  <si>
-    <t>Ogfr</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2684063333333333</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H2">
-        <v>0.8052189999999999</v>
+        <v>0.234183</v>
       </c>
       <c r="I2">
-        <v>0.006023033753180069</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J2">
-        <v>0.006073129829757111</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.019520333333334</v>
+        <v>10.16442533333333</v>
       </c>
       <c r="N2">
-        <v>24.058561</v>
+        <v>30.493276</v>
       </c>
       <c r="O2">
-        <v>0.1352105817207177</v>
+        <v>0.1330347593190647</v>
       </c>
       <c r="P2">
-        <v>0.1391454292795792</v>
+        <v>0.1373416079555711</v>
       </c>
       <c r="Q2">
-        <v>2.152490047762111</v>
+        <v>0.7934452059453333</v>
       </c>
       <c r="R2">
-        <v>19.372410429859</v>
+        <v>7.141006853507999</v>
       </c>
       <c r="S2">
-        <v>0.000814377897490995</v>
+        <v>0.0002395133051432738</v>
       </c>
       <c r="T2">
-        <v>0.000845048257232171</v>
+        <v>0.0002472672752858245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2684063333333333</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H3">
-        <v>0.8052189999999999</v>
+        <v>0.234183</v>
       </c>
       <c r="I3">
-        <v>0.006023033753180069</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J3">
-        <v>0.006073129829757111</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>43.785453</v>
       </c>
       <c r="O3">
-        <v>0.2460769191904347</v>
+        <v>0.191025300185235</v>
       </c>
       <c r="P3">
-        <v>0.253238157256614</v>
+        <v>0.1972095264570158</v>
       </c>
       <c r="Q3">
-        <v>3.917430964356333</v>
+        <v>1.139312082211</v>
       </c>
       <c r="R3">
-        <v>35.256878679207</v>
+        <v>10.253808739899</v>
       </c>
       <c r="S3">
-        <v>0.001482129590162553</v>
+        <v>0.0003439183958202942</v>
       </c>
       <c r="T3">
-        <v>0.001537948206867865</v>
+        <v>0.0003550523617228116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2684063333333333</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H4">
-        <v>0.8052189999999999</v>
+        <v>0.234183</v>
       </c>
       <c r="I4">
-        <v>0.006023033753180069</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J4">
-        <v>0.006073129829757111</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.00106533333333</v>
+        <v>26.21511</v>
       </c>
       <c r="N4">
-        <v>48.003196</v>
+        <v>78.64533</v>
       </c>
       <c r="O4">
-        <v>0.2697808923656585</v>
+        <v>0.3431104794420391</v>
       </c>
       <c r="P4">
-        <v>0.2776319545550451</v>
+        <v>0.3542182899730589</v>
       </c>
       <c r="Q4">
-        <v>4.294787275547111</v>
+        <v>2.04637770171</v>
       </c>
       <c r="R4">
-        <v>38.65308547992399</v>
+        <v>18.41739931539</v>
       </c>
       <c r="S4">
-        <v>0.0016248994206814</v>
+        <v>0.0006177297225258273</v>
       </c>
       <c r="T4">
-        <v>0.001686094904902015</v>
+        <v>0.0006377280179097356</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2684063333333333</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H5">
-        <v>0.8052189999999999</v>
+        <v>0.234183</v>
       </c>
       <c r="I5">
-        <v>0.006023033753180069</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J5">
-        <v>0.006073129829757111</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.031737</v>
+        <v>7.1878075</v>
       </c>
       <c r="N5">
-        <v>10.063474</v>
+        <v>14.375615</v>
       </c>
       <c r="O5">
-        <v>0.08483600746141787</v>
+        <v>0.09407597669672507</v>
       </c>
       <c r="P5">
-        <v>0.05820324872189505</v>
+        <v>0.06474771944641919</v>
       </c>
       <c r="Q5">
-        <v>1.350550078467667</v>
+        <v>0.5610874412575</v>
       </c>
       <c r="R5">
-        <v>8.103300470805998</v>
+        <v>3.366524647545</v>
       </c>
       <c r="S5">
-        <v>0.000510970136425156</v>
+        <v>0.0001693726378620597</v>
       </c>
       <c r="T5">
-        <v>0.0003534758860017133</v>
+        <v>0.000116570589254104</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2684063333333333</v>
+        <v>0.07806100000000001</v>
       </c>
       <c r="H6">
-        <v>0.8052189999999999</v>
+        <v>0.234183</v>
       </c>
       <c r="I6">
-        <v>0.006023033753180069</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="J6">
-        <v>0.006073129829757111</v>
+        <v>0.001800381391819829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.663863</v>
+        <v>18.24178866666667</v>
       </c>
       <c r="N6">
-        <v>46.991589</v>
+        <v>54.725366</v>
       </c>
       <c r="O6">
-        <v>0.2640955992617713</v>
+        <v>0.238753484356936</v>
       </c>
       <c r="P6">
-        <v>0.2717812101868666</v>
+        <v>0.2464828561679349</v>
       </c>
       <c r="Q6">
-        <v>4.204280033665666</v>
+        <v>1.423972265108667</v>
       </c>
       <c r="R6">
-        <v>37.83852030299099</v>
+        <v>12.815750385978</v>
       </c>
       <c r="S6">
-        <v>0.001590656708419966</v>
+        <v>0.0004298473304683743</v>
       </c>
       <c r="T6">
-        <v>0.001650562574753347</v>
+        <v>0.0004437631476473534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>129.099594</v>
       </c>
       <c r="I7">
-        <v>0.9656642629940962</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J7">
-        <v>0.9736960942686801</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.019520333333334</v>
+        <v>10.16442533333333</v>
       </c>
       <c r="N7">
-        <v>24.058561</v>
+        <v>30.493276</v>
       </c>
       <c r="O7">
-        <v>0.1352105817207177</v>
+        <v>0.1330347593190647</v>
       </c>
       <c r="P7">
-        <v>0.1391454292795792</v>
+        <v>0.1373416079555711</v>
       </c>
       <c r="Q7">
-        <v>345.1056063693594</v>
+        <v>437.4077279255492</v>
       </c>
       <c r="R7">
-        <v>3105.950457324234</v>
+        <v>3936.669551329944</v>
       </c>
       <c r="S7">
-        <v>0.1305680267463399</v>
+        <v>0.1320380661772834</v>
       </c>
       <c r="T7">
-        <v>0.1354853610248651</v>
+        <v>0.1363126480098307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>129.099594</v>
       </c>
       <c r="I8">
-        <v>0.9656642629940962</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J8">
-        <v>0.9736960942686801</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>43.785453</v>
       </c>
       <c r="O8">
-        <v>0.2460769191904347</v>
+        <v>0.191025300185235</v>
       </c>
       <c r="P8">
-        <v>0.253238157256614</v>
+        <v>0.1972095264570158</v>
       </c>
       <c r="Q8">
         <v>628.076022822898</v>
@@ -948,10 +948,10 @@
         <v>5652.684205406083</v>
       </c>
       <c r="S8">
-        <v>0.2376276868098889</v>
+        <v>0.18959414333889</v>
       </c>
       <c r="T8">
-        <v>0.2465770046405628</v>
+        <v>0.1957320375396853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>129.099594</v>
       </c>
       <c r="I9">
-        <v>0.9656642629940962</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J9">
-        <v>0.9736960942686801</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.00106533333333</v>
+        <v>26.21511</v>
       </c>
       <c r="N9">
-        <v>48.003196</v>
+        <v>78.64533</v>
       </c>
       <c r="O9">
-        <v>0.2697808923656585</v>
+        <v>0.3431104794420391</v>
       </c>
       <c r="P9">
-        <v>0.2776319545550451</v>
+        <v>0.3542182899730589</v>
       </c>
       <c r="Q9">
-        <v>688.5770127002693</v>
+        <v>1128.12001922178</v>
       </c>
       <c r="R9">
-        <v>6197.193114302424</v>
+        <v>10153.08017299602</v>
       </c>
       <c r="S9">
-        <v>0.2605177665961732</v>
+        <v>0.3405399041767206</v>
       </c>
       <c r="T9">
-        <v>0.2703291497944271</v>
+        <v>0.351564495264693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>129.099594</v>
       </c>
       <c r="I10">
-        <v>0.9656642629940962</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J10">
-        <v>0.9736960942686801</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.031737</v>
+        <v>7.1878075</v>
       </c>
       <c r="N10">
-        <v>10.063474</v>
+        <v>14.375615</v>
       </c>
       <c r="O10">
-        <v>0.08483600746141787</v>
+        <v>0.09407597669672507</v>
       </c>
       <c r="P10">
-        <v>0.05820324872189505</v>
+        <v>0.06474771944641919</v>
       </c>
       <c r="Q10">
-        <v>216.531734604926</v>
+        <v>309.314343333385</v>
       </c>
       <c r="R10">
-        <v>1299.190407629556</v>
+        <v>1855.88606000031</v>
       </c>
       <c r="S10">
-        <v>0.08192310062059173</v>
+        <v>0.09337116179526668</v>
       </c>
       <c r="T10">
-        <v>0.05667227595425776</v>
+        <v>0.06426263112627983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>129.099594</v>
       </c>
       <c r="I11">
-        <v>0.9656642629940962</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="J11">
-        <v>0.9736960942686801</v>
+        <v>0.9925080246179051</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.663863</v>
+        <v>18.24178866666667</v>
       </c>
       <c r="N11">
-        <v>46.991589</v>
+        <v>54.725366</v>
       </c>
       <c r="O11">
-        <v>0.2640955992617713</v>
+        <v>0.238753484356936</v>
       </c>
       <c r="P11">
-        <v>0.2717812101868666</v>
+        <v>0.2464828561679349</v>
       </c>
       <c r="Q11">
-        <v>674.0661179238739</v>
+        <v>785.0025035668227</v>
       </c>
       <c r="R11">
-        <v>6066.595061314865</v>
+        <v>7065.022532101404</v>
       </c>
       <c r="S11">
-        <v>0.2550276822211026</v>
+        <v>0.2369647491297444</v>
       </c>
       <c r="T11">
-        <v>0.2646323028545672</v>
+        <v>0.2446362126774163</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07400866666666668</v>
+        <v>0.05540800000000001</v>
       </c>
       <c r="H12">
-        <v>0.222026</v>
+        <v>0.166224</v>
       </c>
       <c r="I12">
-        <v>0.001660753275920661</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="J12">
-        <v>0.001674566451588515</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.019520333333334</v>
+        <v>10.16442533333333</v>
       </c>
       <c r="N12">
-        <v>24.058561</v>
+        <v>30.493276</v>
       </c>
       <c r="O12">
-        <v>0.1352105817207177</v>
+        <v>0.1330347593190647</v>
       </c>
       <c r="P12">
-        <v>0.1391454292795792</v>
+        <v>0.1373416079555711</v>
       </c>
       <c r="Q12">
-        <v>0.5935140071762224</v>
+        <v>0.5631904788693334</v>
       </c>
       <c r="R12">
-        <v>5.341626064586001</v>
+        <v>5.068714309824</v>
       </c>
       <c r="S12">
-        <v>0.0002245514165318202</v>
+        <v>0.0001700074712260734</v>
       </c>
       <c r="T12">
-        <v>0.0002330082677634657</v>
+        <v>0.0001755112692514439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07400866666666668</v>
+        <v>0.05540800000000001</v>
       </c>
       <c r="H13">
-        <v>0.222026</v>
+        <v>0.166224</v>
       </c>
       <c r="I13">
-        <v>0.001660753275920661</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="J13">
-        <v>0.001674566451588515</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>43.785453</v>
       </c>
       <c r="O13">
-        <v>0.2460769191904347</v>
+        <v>0.191025300185235</v>
       </c>
       <c r="P13">
-        <v>0.253238157256614</v>
+        <v>0.1972095264570158</v>
       </c>
       <c r="Q13">
-        <v>1.080167665308667</v>
+        <v>0.8086881266080002</v>
       </c>
       <c r="R13">
-        <v>9.721508987778002</v>
+        <v>7.278193139472001</v>
       </c>
       <c r="S13">
-        <v>0.0004086730496739782</v>
+        <v>0.0002441146087753278</v>
       </c>
       <c r="T13">
-        <v>0.0004240641224040225</v>
+        <v>0.0002520175408762064</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.07400866666666668</v>
+        <v>0.05540800000000001</v>
       </c>
       <c r="H14">
-        <v>0.222026</v>
+        <v>0.166224</v>
       </c>
       <c r="I14">
-        <v>0.001660753275920661</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="J14">
-        <v>0.001674566451588515</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.00106533333333</v>
+        <v>26.21511</v>
       </c>
       <c r="N14">
-        <v>48.003196</v>
+        <v>78.64533</v>
       </c>
       <c r="O14">
-        <v>0.2697808923656585</v>
+        <v>0.3431104794420391</v>
       </c>
       <c r="P14">
-        <v>0.2776319545550451</v>
+        <v>0.3542182899730589</v>
       </c>
       <c r="Q14">
-        <v>1.184217510566222</v>
+        <v>1.45252681488</v>
       </c>
       <c r="R14">
-        <v>10.657957595096</v>
+        <v>13.07274133392</v>
       </c>
       <c r="S14">
-        <v>0.0004480395007770665</v>
+        <v>0.0004384669484853005</v>
       </c>
       <c r="T14">
-        <v>0.0004649131569868258</v>
+        <v>0.0004526618159688274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.07400866666666668</v>
+        <v>0.05540800000000001</v>
       </c>
       <c r="H15">
-        <v>0.222026</v>
+        <v>0.166224</v>
       </c>
       <c r="I15">
-        <v>0.001660753275920661</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="J15">
-        <v>0.001674566451588515</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.031737</v>
+        <v>7.1878075</v>
       </c>
       <c r="N15">
-        <v>10.063474</v>
+        <v>14.375615</v>
       </c>
       <c r="O15">
-        <v>0.08483600746141787</v>
+        <v>0.09407597669672507</v>
       </c>
       <c r="P15">
-        <v>0.05820324872189505</v>
+        <v>0.06474771944641919</v>
       </c>
       <c r="Q15">
-        <v>0.3723921463873334</v>
+        <v>0.39826203796</v>
       </c>
       <c r="R15">
-        <v>2.234352878324</v>
+        <v>2.38957222776</v>
       </c>
       <c r="S15">
-        <v>0.0001408916773075793</v>
+        <v>0.0001202213540521003</v>
       </c>
       <c r="T15">
-        <v>9.746520768314759E-05</v>
+        <v>8.27422555359449E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.07400866666666668</v>
+        <v>0.05540800000000001</v>
       </c>
       <c r="H16">
-        <v>0.222026</v>
+        <v>0.166224</v>
       </c>
       <c r="I16">
-        <v>0.001660753275920661</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="J16">
-        <v>0.001674566451588515</v>
+        <v>0.001277917681786719</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.663863</v>
+        <v>18.24178866666667</v>
       </c>
       <c r="N16">
-        <v>46.991589</v>
+        <v>54.725366</v>
       </c>
       <c r="O16">
-        <v>0.2640955992617713</v>
+        <v>0.238753484356936</v>
       </c>
       <c r="P16">
-        <v>0.2717812101868666</v>
+        <v>0.2464828561679349</v>
       </c>
       <c r="Q16">
-        <v>1.159261615479334</v>
+        <v>1.010741026442667</v>
       </c>
       <c r="R16">
-        <v>10.433354539314</v>
+        <v>9.096669237984001</v>
       </c>
       <c r="S16">
-        <v>0.0004385976316302167</v>
+        <v>0.0003051072992479174</v>
       </c>
       <c r="T16">
-        <v>0.0004551156967510537</v>
+        <v>0.0003149848001542968</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.1027825</v>
+        <v>0.1913683333333333</v>
       </c>
       <c r="H17">
-        <v>2.205565</v>
+        <v>0.574105</v>
       </c>
       <c r="I17">
-        <v>0.02474642135834959</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="J17">
-        <v>0.01663483175753211</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.019520333333334</v>
+        <v>10.16442533333333</v>
       </c>
       <c r="N17">
-        <v>24.058561</v>
+        <v>30.493276</v>
       </c>
       <c r="O17">
-        <v>0.1352105817207177</v>
+        <v>0.1330347593190647</v>
       </c>
       <c r="P17">
-        <v>0.1391454292795792</v>
+        <v>0.1373416079555711</v>
       </c>
       <c r="Q17">
-        <v>8.843786681994168</v>
+        <v>1.945149135331111</v>
       </c>
       <c r="R17">
-        <v>53.06272009196501</v>
+        <v>17.50634221798</v>
       </c>
       <c r="S17">
-        <v>0.003345978027368442</v>
+        <v>0.0005871723654120035</v>
       </c>
       <c r="T17">
-        <v>0.002314660805895382</v>
+        <v>0.0006061814012031969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.1027825</v>
+        <v>0.1913683333333333</v>
       </c>
       <c r="H18">
-        <v>2.205565</v>
+        <v>0.574105</v>
       </c>
       <c r="I18">
-        <v>0.02474642135834959</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="J18">
-        <v>0.01663483175753211</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>43.785453</v>
       </c>
       <c r="O18">
-        <v>0.2460769191904347</v>
+        <v>0.191025300185235</v>
       </c>
       <c r="P18">
-        <v>0.253238157256614</v>
+        <v>0.1972095264570158</v>
       </c>
       <c r="Q18">
-        <v>16.0952771076575</v>
+        <v>2.793049721618333</v>
       </c>
       <c r="R18">
-        <v>96.57166264594501</v>
+        <v>25.137447494565</v>
       </c>
       <c r="S18">
-        <v>0.006089523128851041</v>
+        <v>0.0008431238417494437</v>
       </c>
       <c r="T18">
-        <v>0.004212574140551231</v>
+        <v>0.0008704190147315337</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.1027825</v>
+        <v>0.1913683333333333</v>
       </c>
       <c r="H19">
-        <v>2.205565</v>
+        <v>0.574105</v>
       </c>
       <c r="I19">
-        <v>0.02474642135834959</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="J19">
-        <v>0.01663483175753211</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.00106533333333</v>
+        <v>26.21511</v>
       </c>
       <c r="N19">
-        <v>48.003196</v>
+        <v>78.64533</v>
       </c>
       <c r="O19">
-        <v>0.2697808923656585</v>
+        <v>0.3431104794420391</v>
       </c>
       <c r="P19">
-        <v>0.2776319545550451</v>
+        <v>0.3542182899730589</v>
       </c>
       <c r="Q19">
-        <v>17.64569483095667</v>
+        <v>5.01674190885</v>
       </c>
       <c r="R19">
-        <v>105.87416898574</v>
+        <v>45.15067717965</v>
       </c>
       <c r="S19">
-        <v>0.006676111636912145</v>
+        <v>0.001514378594307401</v>
       </c>
       <c r="T19">
-        <v>0.004618360854537974</v>
+        <v>0.00156340487448734</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.1027825</v>
+        <v>0.1913683333333333</v>
       </c>
       <c r="H20">
-        <v>2.205565</v>
+        <v>0.574105</v>
       </c>
       <c r="I20">
-        <v>0.02474642135834959</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="J20">
-        <v>0.01663483175753211</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.031737</v>
+        <v>7.1878075</v>
       </c>
       <c r="N20">
-        <v>10.063474</v>
+        <v>14.375615</v>
       </c>
       <c r="O20">
-        <v>0.08483600746141787</v>
+        <v>0.09407597669672507</v>
       </c>
       <c r="P20">
-        <v>0.05820324872189505</v>
+        <v>0.06474771944641919</v>
       </c>
       <c r="Q20">
-        <v>5.5489115082025</v>
+        <v>1.375518741595833</v>
       </c>
       <c r="R20">
-        <v>22.19564603281</v>
+        <v>8.253112449574999</v>
       </c>
       <c r="S20">
-        <v>0.002099387587000337</v>
+        <v>0.0004152209095442359</v>
       </c>
       <c r="T20">
-        <v>0.0009682012502305197</v>
+        <v>0.0002857754753493097</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.1027825</v>
+        <v>0.1913683333333333</v>
       </c>
       <c r="H21">
-        <v>2.205565</v>
+        <v>0.574105</v>
       </c>
       <c r="I21">
-        <v>0.02474642135834959</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="J21">
-        <v>0.01663483175753211</v>
+        <v>0.004413676308488332</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.663863</v>
+        <v>18.24178866666667</v>
       </c>
       <c r="N21">
-        <v>46.991589</v>
+        <v>54.725366</v>
       </c>
       <c r="O21">
-        <v>0.2640955992617713</v>
+        <v>0.238753484356936</v>
       </c>
       <c r="P21">
-        <v>0.2717812101868666</v>
+        <v>0.2464828561679349</v>
       </c>
       <c r="Q21">
-        <v>17.2738339987975</v>
+        <v>3.490900694158889</v>
       </c>
       <c r="R21">
-        <v>103.643003992785</v>
+        <v>31.41810624743</v>
       </c>
       <c r="S21">
-        <v>0.006535420978217632</v>
+        <v>0.001053780597475248</v>
       </c>
       <c r="T21">
-        <v>0.004521034706316997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.08491666666666665</v>
-      </c>
-      <c r="H22">
-        <v>0.25475</v>
-      </c>
-      <c r="I22">
-        <v>0.001905528618453641</v>
-      </c>
-      <c r="J22">
-        <v>0.00192137769244221</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.019520333333334</v>
-      </c>
-      <c r="N22">
-        <v>24.058561</v>
-      </c>
-      <c r="O22">
-        <v>0.1352105817207177</v>
-      </c>
-      <c r="P22">
-        <v>0.1391454292795792</v>
-      </c>
-      <c r="Q22">
-        <v>0.6809909349722222</v>
-      </c>
-      <c r="R22">
-        <v>6.128918414749999</v>
-      </c>
-      <c r="S22">
-        <v>0.0002576476329865924</v>
-      </c>
-      <c r="T22">
-        <v>0.0002673509238230787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.08491666666666665</v>
-      </c>
-      <c r="H23">
-        <v>0.25475</v>
-      </c>
-      <c r="I23">
-        <v>0.001905528618453641</v>
-      </c>
-      <c r="J23">
-        <v>0.00192137769244221</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.595151</v>
-      </c>
-      <c r="N23">
-        <v>43.785453</v>
-      </c>
-      <c r="O23">
-        <v>0.2460769191904347</v>
-      </c>
-      <c r="P23">
-        <v>0.253238157256614</v>
-      </c>
-      <c r="Q23">
-        <v>1.239371572416667</v>
-      </c>
-      <c r="R23">
-        <v>11.15434415175</v>
-      </c>
-      <c r="S23">
-        <v>0.0004689066118582774</v>
-      </c>
-      <c r="T23">
-        <v>0.0004865661462280305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.08491666666666665</v>
-      </c>
-      <c r="H24">
-        <v>0.25475</v>
-      </c>
-      <c r="I24">
-        <v>0.001905528618453641</v>
-      </c>
-      <c r="J24">
-        <v>0.00192137769244221</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>16.00106533333333</v>
-      </c>
-      <c r="N24">
-        <v>48.003196</v>
-      </c>
-      <c r="O24">
-        <v>0.2697808923656585</v>
-      </c>
-      <c r="P24">
-        <v>0.2776319545550451</v>
-      </c>
-      <c r="Q24">
-        <v>1.358757131222222</v>
-      </c>
-      <c r="R24">
-        <v>12.228814181</v>
-      </c>
-      <c r="S24">
-        <v>0.0005140752111147237</v>
-      </c>
-      <c r="T24">
-        <v>0.0005334358441911932</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.08491666666666665</v>
-      </c>
-      <c r="H25">
-        <v>0.25475</v>
-      </c>
-      <c r="I25">
-        <v>0.001905528618453641</v>
-      </c>
-      <c r="J25">
-        <v>0.00192137769244221</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.031737</v>
-      </c>
-      <c r="N25">
-        <v>10.063474</v>
-      </c>
-      <c r="O25">
-        <v>0.08483600746141787</v>
-      </c>
-      <c r="P25">
-        <v>0.05820324872189505</v>
-      </c>
-      <c r="Q25">
-        <v>0.4272783335833332</v>
-      </c>
-      <c r="R25">
-        <v>2.5636700015</v>
-      </c>
-      <c r="S25">
-        <v>0.0001616574400930784</v>
-      </c>
-      <c r="T25">
-        <v>0.0001118304237219147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.08491666666666665</v>
-      </c>
-      <c r="H26">
-        <v>0.25475</v>
-      </c>
-      <c r="I26">
-        <v>0.001905528618453641</v>
-      </c>
-      <c r="J26">
-        <v>0.00192137769244221</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>15.663863</v>
-      </c>
-      <c r="N26">
-        <v>46.991589</v>
-      </c>
-      <c r="O26">
-        <v>0.2640955992617713</v>
-      </c>
-      <c r="P26">
-        <v>0.2717812101868666</v>
-      </c>
-      <c r="Q26">
-        <v>1.330123033083333</v>
-      </c>
-      <c r="R26">
-        <v>11.97110729775</v>
-      </c>
-      <c r="S26">
-        <v>0.0005032417224009695</v>
-      </c>
-      <c r="T26">
-        <v>0.0005221943544779931</v>
+        <v>0.001087895542716951</v>
       </c>
     </row>
   </sheetData>
